--- a/projects/ptool_preflight.xlsx
+++ b/projects/ptool_preflight.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15990" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15990" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2209" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="742">
   <si>
     <t>type</t>
   </si>
@@ -1944,39 +1944,15 @@
     <t>Total Site Energy Intensity</t>
   </si>
   <si>
-    <t>total_site_energy_intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.total_energy</t>
-  </si>
-  <si>
     <t>Total Source Energy Intensity</t>
   </si>
   <si>
-    <t>total_source_energy_intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.total_source_energy</t>
-  </si>
-  <si>
     <t>Total Natural Gas Intensity</t>
   </si>
   <si>
-    <t>total_natural_gas_intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.total_natural_gas</t>
-  </si>
-  <si>
     <t>Total Electricity Intensity</t>
   </si>
   <si>
-    <t>total_electricity_intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.total_electricity</t>
-  </si>
-  <si>
     <t>Parameter Short Display Name</t>
   </si>
   <si>
@@ -2064,87 +2040,45 @@
     <t>Cooling Electricity Intensity</t>
   </si>
   <si>
-    <t>standard_report_legacy.cooling_electricity</t>
-  </si>
-  <si>
     <t>Interior Lighting Electricity Intensity</t>
   </si>
   <si>
-    <t>standard_report_legacy.interior_lighting_electricity</t>
-  </si>
-  <si>
     <t>Exterior Lighting Electricity Intensity</t>
   </si>
   <si>
-    <t>standard_report_legacy.exterior_lighting_electricity</t>
-  </si>
-  <si>
     <t>Equipment Electricity Intensity</t>
   </si>
   <si>
-    <t>standard_report_legacy.interior_equipment_electricity</t>
-  </si>
-  <si>
     <t>Equipment Natural Gas Intensity</t>
   </si>
   <si>
-    <t>standard_report_legacy.interior_equipment_natural_gas</t>
-  </si>
-  <si>
     <t>Experior Equipment Electricity Intensity</t>
   </si>
   <si>
-    <t>standard_report_legacy.exterior_equipment_electricity</t>
-  </si>
-  <si>
     <t>Fans Electricity Intensity</t>
   </si>
   <si>
-    <t>standard_report_legacy.fans_electricity</t>
-  </si>
-  <si>
     <t>Pumps Electricity Intensity</t>
   </si>
   <si>
-    <t>standard_report_legacy.pumps_electricity</t>
-  </si>
-  <si>
     <t>Heat Rejection Electricity Intensity</t>
   </si>
   <si>
-    <t>standard_report_legacy.heat_rejection_electricity</t>
-  </si>
-  <si>
     <t>Humidification Electricity Intensity</t>
   </si>
   <si>
-    <t>standard_report_legacy.humidification_electricity</t>
-  </si>
-  <si>
     <t>Water Systems Electricity Intensity</t>
   </si>
   <si>
-    <t>standard_report_legacy.water_systems_electricity</t>
-  </si>
-  <si>
     <t>Water Systems Natural Gas Intensity</t>
   </si>
   <si>
-    <t>standard_report_legacy.water_systems_natural_gas</t>
-  </si>
-  <si>
     <t>Refrigeration Electricity Intensity</t>
   </si>
   <si>
-    <t>standard_report_legacy.refrigeration_electricity</t>
-  </si>
-  <si>
     <t>Total Life Cycle Cost</t>
   </si>
   <si>
-    <t>standard_report.total_life_cycle_cost</t>
-  </si>
-  <si>
     <t>$</t>
   </si>
   <si>
@@ -2262,9 +2196,6 @@
     <t>CreateDOEPrototypeBuilding</t>
   </si>
   <si>
-    <t>standard_report.heating_natural_gas</t>
-  </si>
-  <si>
     <t>../analysis</t>
   </si>
   <si>
@@ -2278,6 +2209,63 @@
   </si>
   <si>
     <t>../../OpenStudio-Prototype-Buildings</t>
+  </si>
+  <si>
+    <t>standard_reports.total_energy</t>
+  </si>
+  <si>
+    <t>standard_reports.total_source_energy</t>
+  </si>
+  <si>
+    <t>standard_reports.total_natural_gas</t>
+  </si>
+  <si>
+    <t>standard_reports.total_electricity</t>
+  </si>
+  <si>
+    <t>standard_reports.cooling_electricity</t>
+  </si>
+  <si>
+    <t>standard_reports.interior_lighting_electricity</t>
+  </si>
+  <si>
+    <t>standard_reports.exterior_lighting_electricity</t>
+  </si>
+  <si>
+    <t>standard_reports.interior_equipment_electricity</t>
+  </si>
+  <si>
+    <t>standard_reports.interior_equipment_natural_gas</t>
+  </si>
+  <si>
+    <t>standard_reports.exterior_equipment_electricity</t>
+  </si>
+  <si>
+    <t>standard_reports.fans_electricity</t>
+  </si>
+  <si>
+    <t>standard_reports.pumps_electricity</t>
+  </si>
+  <si>
+    <t>standard_reports.heat_rejection_electricity</t>
+  </si>
+  <si>
+    <t>standard_reports.humidification_electricity</t>
+  </si>
+  <si>
+    <t>standard_reports.water_systems_electricity</t>
+  </si>
+  <si>
+    <t>standard_reports.water_systems_natural_gas</t>
+  </si>
+  <si>
+    <t>standard_reports.refrigeration_electricity</t>
+  </si>
+  <si>
+    <t>standard_reports.heating_natural_gas</t>
+  </si>
+  <si>
+    <t>standard_reports.total_life_cycle_cost</t>
   </si>
 </sst>
 </file>
@@ -5782,7 +5770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -5821,7 +5809,7 @@
         <v>435</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>711</v>
+        <v>689</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>436</v>
@@ -5843,7 +5831,7 @@
         <v>469</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>712</v>
+        <v>690</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>615</v>
@@ -5915,7 +5903,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="36" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="E9" s="36" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
@@ -5927,16 +5915,16 @@
     </row>
     <row r="10" spans="1:6" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>713</v>
+        <v>691</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="36"/>
       <c r="E10" s="36"/>
       <c r="F10" s="2" t="s">
-        <v>715</v>
+        <v>693</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5954,7 +5942,7 @@
         <v>38</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>736</v>
+        <v>714</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>471</v>
@@ -5965,7 +5953,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>744</v>
+        <v>721</v>
       </c>
       <c r="F14" s="33" t="s">
         <v>616</v>
@@ -5976,7 +5964,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>745</v>
+        <v>722</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -5989,7 +5977,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>741</v>
+        <v>718</v>
       </c>
       <c r="F16" s="33" t="s">
         <v>616</v>
@@ -6282,7 +6270,7 @@
         <v>28</v>
       </c>
       <c r="B39" s="38" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6308,13 +6296,13 @@
         <v>31</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>742</v>
+        <v>719</v>
       </c>
       <c r="C42" s="21" t="s">
         <v>40</v>
       </c>
       <c r="D42" s="41" t="s">
-        <v>743</v>
+        <v>720</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>449</v>
@@ -6468,7 +6456,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -6533,13 +6521,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>723</v>
+        <v>701</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>738</v>
+        <v>716</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>739</v>
+        <v>717</v>
       </c>
       <c r="E4" s="43" t="s">
         <v>67</v>
@@ -6547,89 +6535,89 @@
     </row>
     <row r="5" spans="1:26" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="42" t="s">
-        <v>737</v>
+        <v>715</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>725</v>
+        <v>703</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>724</v>
+        <v>702</v>
       </c>
       <c r="G5" s="42" t="s">
         <v>61</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>726</v>
+        <v>704</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>735</v>
+        <v>713</v>
       </c>
       <c r="K5" s="42" t="s">
-        <v>726</v>
+        <v>704</v>
       </c>
       <c r="L5" s="42" t="s">
-        <v>726</v>
+        <v>704</v>
       </c>
       <c r="M5" s="42" t="s">
-        <v>726</v>
+        <v>704</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="42" t="s">
-        <v>737</v>
+        <v>715</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>729</v>
+        <v>707</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>727</v>
+        <v>705</v>
       </c>
       <c r="G6" s="42" t="s">
         <v>61</v>
       </c>
       <c r="I6" s="42" t="s">
-        <v>734</v>
+        <v>712</v>
       </c>
       <c r="J6" s="42" t="s">
-        <v>731</v>
+        <v>709</v>
       </c>
       <c r="K6" s="42" t="s">
-        <v>734</v>
+        <v>712</v>
       </c>
       <c r="L6" s="42" t="s">
-        <v>734</v>
+        <v>712</v>
       </c>
       <c r="M6" s="42" t="s">
-        <v>734</v>
+        <v>712</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="42" t="s">
-        <v>737</v>
+        <v>715</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>730</v>
+        <v>708</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>728</v>
+        <v>706</v>
       </c>
       <c r="G7" s="42" t="s">
         <v>61</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>733</v>
+        <v>711</v>
       </c>
       <c r="J7" s="42" t="s">
-        <v>732</v>
+        <v>710</v>
       </c>
       <c r="K7" s="42" t="s">
-        <v>733</v>
+        <v>711</v>
       </c>
       <c r="L7" s="42" t="s">
-        <v>733</v>
+        <v>711</v>
       </c>
       <c r="M7" s="42" t="s">
-        <v>733</v>
+        <v>711</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="43" customFormat="1" x14ac:dyDescent="0.25">
@@ -6640,7 +6628,7 @@
         <v>382</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="D8" s="43" t="s">
         <v>75</v>
@@ -6654,7 +6642,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>710</v>
+        <v>688</v>
       </c>
       <c r="E9" s="42" t="s">
         <v>76</v>
@@ -6808,9 +6796,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6818,7 +6806,7 @@
     <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" style="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" style="1" customWidth="1"/>
@@ -6852,7 +6840,7 @@
         <v>459</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>619</v>
@@ -6890,7 +6878,7 @@
         <v>626</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>627</v>
@@ -6929,13 +6917,11 @@
         <v>633</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>702</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>634</v>
-      </c>
+        <v>680</v>
+      </c>
+      <c r="C4" s="32"/>
       <c r="D4" s="32" t="s">
-        <v>635</v>
+        <v>723</v>
       </c>
       <c r="E4" s="32" t="s">
         <v>468</v>
@@ -6959,16 +6945,14 @@
     </row>
     <row r="5" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>703</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>637</v>
-      </c>
+        <v>681</v>
+      </c>
+      <c r="C5" s="32"/>
       <c r="D5" s="32" t="s">
-        <v>638</v>
+        <v>724</v>
       </c>
       <c r="E5" s="32" t="s">
         <v>468</v>
@@ -6992,16 +6976,14 @@
     </row>
     <row r="6" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>704</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>640</v>
-      </c>
+        <v>682</v>
+      </c>
+      <c r="C6" s="32"/>
       <c r="D6" s="32" t="s">
-        <v>641</v>
+        <v>725</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>468</v>
@@ -7025,16 +7007,14 @@
     </row>
     <row r="7" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>705</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>643</v>
-      </c>
+        <v>683</v>
+      </c>
+      <c r="C7" s="32"/>
       <c r="D7" s="32" t="s">
-        <v>644</v>
+        <v>726</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>468</v>
@@ -7058,15 +7038,15 @@
     </row>
     <row r="8" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
       <c r="D8" s="32" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="F8" s="32" t="s">
         <v>63</v>
@@ -7087,15 +7067,15 @@
     </row>
     <row r="9" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
       <c r="D9" s="32" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="F9" s="32" t="s">
         <v>63</v>
@@ -7116,15 +7096,15 @@
     </row>
     <row r="10" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32" t="s">
-        <v>708</v>
+        <v>686</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="F10" s="32" t="s">
         <v>63</v>
@@ -7145,15 +7125,15 @@
     </row>
     <row r="11" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
       <c r="D11" s="32" t="s">
-        <v>709</v>
+        <v>687</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="F11" s="32" t="s">
         <v>63</v>
@@ -7174,7 +7154,7 @@
     </row>
     <row r="12" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
@@ -7203,12 +7183,12 @@
     </row>
     <row r="13" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
       <c r="D13" s="32" t="s">
-        <v>674</v>
+        <v>727</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>468</v>
@@ -7232,12 +7212,12 @@
     </row>
     <row r="14" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
       <c r="D14" s="32" t="s">
-        <v>676</v>
+        <v>728</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>468</v>
@@ -7261,12 +7241,12 @@
     </row>
     <row r="15" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
       <c r="D15" s="32" t="s">
-        <v>678</v>
+        <v>729</v>
       </c>
       <c r="E15" s="32" t="s">
         <v>468</v>
@@ -7290,12 +7270,12 @@
     </row>
     <row r="16" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
       <c r="D16" s="32" t="s">
-        <v>680</v>
+        <v>730</v>
       </c>
       <c r="E16" s="32" t="s">
         <v>468</v>
@@ -7319,10 +7299,10 @@
     </row>
     <row r="17" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>682</v>
+        <v>731</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>468</v>
@@ -7342,10 +7322,10 @@
     </row>
     <row r="18" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>684</v>
+        <v>732</v>
       </c>
       <c r="E18" s="32" t="s">
         <v>468</v>
@@ -7365,10 +7345,10 @@
     </row>
     <row r="19" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>686</v>
+        <v>733</v>
       </c>
       <c r="E19" s="32" t="s">
         <v>468</v>
@@ -7388,10 +7368,10 @@
     </row>
     <row r="20" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>688</v>
+        <v>734</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>468</v>
@@ -7411,10 +7391,10 @@
     </row>
     <row r="21" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>690</v>
+        <v>735</v>
       </c>
       <c r="E21" s="32" t="s">
         <v>468</v>
@@ -7434,10 +7414,10 @@
     </row>
     <row r="22" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
-        <v>691</v>
+        <v>674</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>692</v>
+        <v>736</v>
       </c>
       <c r="E22" s="32" t="s">
         <v>468</v>
@@ -7457,12 +7437,12 @@
     </row>
     <row r="23" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
-        <v>693</v>
+        <v>675</v>
       </c>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
       <c r="D23" s="32" t="s">
-        <v>694</v>
+        <v>737</v>
       </c>
       <c r="E23" s="32" t="s">
         <v>468</v>
@@ -7486,12 +7466,12 @@
     </row>
     <row r="24" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>695</v>
+        <v>676</v>
       </c>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
       <c r="D24" s="32" t="s">
-        <v>696</v>
+        <v>738</v>
       </c>
       <c r="E24" s="32" t="s">
         <v>468</v>
@@ -7515,12 +7495,12 @@
     </row>
     <row r="25" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>697</v>
+        <v>677</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
       <c r="D25" s="32" t="s">
-        <v>698</v>
+        <v>739</v>
       </c>
       <c r="E25" s="32" t="s">
         <v>468</v>
@@ -7544,15 +7524,15 @@
     </row>
     <row r="26" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
-        <v>699</v>
+        <v>678</v>
       </c>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
       <c r="D26" s="32" t="s">
-        <v>700</v>
+        <v>741</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>701</v>
+        <v>679</v>
       </c>
       <c r="F26" s="32" t="s">
         <v>63</v>
@@ -15991,7 +15971,7 @@
         <v>438</v>
       </c>
       <c r="D1" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -15999,19 +15979,19 @@
     </row>
     <row r="2" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="D2" s="32" t="s">
+        <v>643</v>
+      </c>
+      <c r="E2" s="32" t="s">
         <v>651</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -16025,10 +16005,10 @@
         <v>592</v>
       </c>
       <c r="D3" s="32" t="s">
+        <v>644</v>
+      </c>
+      <c r="E3" s="32" t="s">
         <v>652</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -16042,10 +16022,10 @@
         <v>594</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -16059,10 +16039,10 @@
         <v>596</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -16076,10 +16056,10 @@
         <v>598</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>716</v>
+        <v>694</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -16093,10 +16073,10 @@
         <v>600</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>716</v>
+        <v>694</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -16110,10 +16090,10 @@
         <v>601</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>717</v>
+        <v>695</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -16127,10 +16107,10 @@
         <v>603</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>717</v>
+        <v>695</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -16138,50 +16118,50 @@
         <v>604</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>605</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>717</v>
+        <v>695</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>718</v>
+        <v>696</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>445</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>719</v>
+        <v>697</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>720</v>
+        <v>698</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>721</v>
+        <v>699</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>446</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>722</v>
+        <v>700</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>720</v>
+        <v>698</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/projects/ptool_preflight.xlsx
+++ b/projects/ptool_preflight.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15990" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="0" windowWidth="15360" windowHeight="13920" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2184,9 +2184,6 @@
     <t>|SmallOffice|</t>
   </si>
   <si>
-    <t>Ptool Run</t>
-  </si>
-  <si>
     <t>pivot</t>
   </si>
   <si>
@@ -2266,6 +2263,9 @@
   </si>
   <si>
     <t>standard_reports.total_life_cycle_cost</t>
+  </si>
+  <si>
+    <t>Ptool Preflight</t>
   </si>
 </sst>
 </file>
@@ -5770,8 +5770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5942,7 +5942,7 @@
         <v>38</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>714</v>
+        <v>741</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>471</v>
@@ -5953,7 +5953,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F14" s="33" t="s">
         <v>616</v>
@@ -5964,7 +5964,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -5977,7 +5977,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F16" s="33" t="s">
         <v>616</v>
@@ -6296,13 +6296,13 @@
         <v>31</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C42" s="21" t="s">
         <v>40</v>
       </c>
       <c r="D42" s="41" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>449</v>
@@ -6357,8 +6357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6524,10 +6524,10 @@
         <v>701</v>
       </c>
       <c r="C4" s="43" t="s">
+        <v>715</v>
+      </c>
+      <c r="D4" s="43" t="s">
         <v>716</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>717</v>
       </c>
       <c r="E4" s="43" t="s">
         <v>67</v>
@@ -6535,7 +6535,7 @@
     </row>
     <row r="5" spans="1:26" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="42" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D5" s="42" t="s">
         <v>703</v>
@@ -6564,7 +6564,7 @@
     </row>
     <row r="6" spans="1:26" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="42" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>707</v>
@@ -6593,7 +6593,7 @@
     </row>
     <row r="7" spans="1:26" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="42" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>708</v>
@@ -6796,7 +6796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="C4" s="32"/>
       <c r="D4" s="32" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E4" s="32" t="s">
         <v>468</v>
@@ -6952,7 +6952,7 @@
       </c>
       <c r="C5" s="32"/>
       <c r="D5" s="32" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E5" s="32" t="s">
         <v>468</v>
@@ -6983,7 +6983,7 @@
       </c>
       <c r="C6" s="32"/>
       <c r="D6" s="32" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>468</v>
@@ -7014,7 +7014,7 @@
       </c>
       <c r="C7" s="32"/>
       <c r="D7" s="32" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>468</v>
@@ -7159,7 +7159,7 @@
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
       <c r="D12" s="32" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>468</v>
@@ -7188,7 +7188,7 @@
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
       <c r="D13" s="32" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>468</v>
@@ -7217,7 +7217,7 @@
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
       <c r="D14" s="32" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>468</v>
@@ -7246,7 +7246,7 @@
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
       <c r="D15" s="32" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E15" s="32" t="s">
         <v>468</v>
@@ -7275,7 +7275,7 @@
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
       <c r="D16" s="32" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E16" s="32" t="s">
         <v>468</v>
@@ -7302,7 +7302,7 @@
         <v>669</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>468</v>
@@ -7325,7 +7325,7 @@
         <v>670</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E18" s="32" t="s">
         <v>468</v>
@@ -7348,7 +7348,7 @@
         <v>671</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E19" s="32" t="s">
         <v>468</v>
@@ -7371,7 +7371,7 @@
         <v>672</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>468</v>
@@ -7394,7 +7394,7 @@
         <v>673</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E21" s="32" t="s">
         <v>468</v>
@@ -7417,7 +7417,7 @@
         <v>674</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E22" s="32" t="s">
         <v>468</v>
@@ -7442,7 +7442,7 @@
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
       <c r="D23" s="32" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E23" s="32" t="s">
         <v>468</v>
@@ -7471,7 +7471,7 @@
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
       <c r="D24" s="32" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E24" s="32" t="s">
         <v>468</v>
@@ -7500,7 +7500,7 @@
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
       <c r="D25" s="32" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E25" s="32" t="s">
         <v>468</v>
@@ -7529,7 +7529,7 @@
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
       <c r="D26" s="32" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E26" s="32" t="s">
         <v>679</v>
